--- a/detection_des_signaux_de_la_manette/Calcul de l'angle en fonction de la phase- Exemple.xlsx
+++ b/detection_des_signaux_de_la_manette/Calcul de l'angle en fonction de la phase- Exemple.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphique1" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
-  <si>
-    <t>phase</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>distance</t>
   </si>
@@ -36,6 +34,15 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>Angle(rad)</t>
+  </si>
+  <si>
+    <t>Angle(deg)</t>
+  </si>
+  <si>
+    <t>phase(rad)</t>
   </si>
 </sst>
 </file>
@@ -88,6 +95,1389 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="274716912"/>
+        <c:axId val="274716496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="274716912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="274716496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="274716496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="274716912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8655326" cy="6284429"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="1466850"/>
+          <a:ext cx="3409950" cy="2924175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Ce tableau permet de calculer l'angle de d'arrivé d'un signal.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Distance correspond à la distance entre les</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0"/>
+            <a:t> deux antennes (devrait être inférieur ou égal à la moitié de la longueur d'onde de l'onde à détecter)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0"/>
+            <a:t>Longueur d'onde correcpond à longueur d'onde du signal à détecter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0"/>
+            <a:t>La phase correspond au déphasage détecté entre les ondes des deux attentes.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0"/>
+            <a:t>Angle correspond à l'angle d'arrivé du signa</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0"/>
+            <a:t>les angles dont le résultat est #NOMBRE! correspondent à des phase impossible</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2513701" cy="829843"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6219825" y="823912"/>
+              <a:ext cx="2513701" cy="829843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="fr-CA" sz="2400" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-CA" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="fr-CA" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑟𝑐𝑠𝑖𝑛</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="fr-CA" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="fr-CA" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="fr-CA" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜙𝜆</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="fr-CA" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="fr-CA" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜋</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="fr-CA" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑑</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="fr-CA" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6219825" y="823912"/>
+              <a:ext cx="2513701" cy="829843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="2400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=𝑎𝑟𝑐𝑠𝑖𝑛(𝜙𝜆/2𝜋𝑑)</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-CA" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="ZoneTexte 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6210300" y="1771651"/>
+              <a:ext cx="3352800" cy="1181100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1400"/>
+                <a:t>Où:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="fr-CA" sz="1400" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜙</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1400"/>
+                <a:t> est</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1400" baseline="0"/>
+                <a:t> la phase</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="fr-CA" sz="1400" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜆</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1400"/>
+                <a:t> est la longueur d'onde</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1400"/>
+                <a:t>d est la distance entre les</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1400" baseline="0"/>
+                <a:t> deux antennes</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-CA" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="ZoneTexte 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6210300" y="1771651"/>
+              <a:ext cx="3352800" cy="1181100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1400"/>
+                <a:t>Où:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1400" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜙</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1400"/>
+                <a:t> est</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1400" baseline="0"/>
+                <a:t> la phase</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1400"/>
+                <a:t> est la longueur d'onde</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1400"/>
+                <a:t>d est la distance entre les</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-CA" sz="1400" baseline="0"/>
+                <a:t> deux antennes</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-CA" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>67184</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9667875" y="104775"/>
+          <a:ext cx="3648584" cy="4248743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,53 +1743,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
         <v>0.05</v>
       </c>
-      <c r="D1">
-        <f>C1*1000</f>
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0.124914</v>
       </c>
-      <c r="D2">
-        <f>C2*1000</f>
-        <v>124.914</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-0.1</v>
       </c>
@@ -416,7 +1805,7 @@
         <v>-7.1757894188540936</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-0.2</v>
       </c>
@@ -425,15 +1814,15 @@
         <v>-0.62831853071795862</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C23" si="1">ASIN( ( (B5*$C$2)/(2*PI()) )/$C$1 )</f>
+        <f>ASIN( ( (B5*$C$2)/(2*PI()) )/$C$1 )</f>
         <v>-0.25250261837870802</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D23" si="2">DEGREES(C5)</f>
+        <f t="shared" ref="D5:D23" si="1">DEGREES(C5)</f>
         <v>-14.467334349102423</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.3</v>
       </c>
@@ -442,15 +1831,15 @@
         <v>-0.94247779607693793</v>
       </c>
       <c r="C6">
+        <f t="shared" ref="C5:C23" si="2">ASIN( ( (B6*$C$2)/(2*PI()) )/$C$1 )</f>
+        <v>-0.384118480453365</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="1"/>
-        <v>-0.384118480453365</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
         <v>-22.008367762956222</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-0.4</v>
       </c>
@@ -459,15 +1848,15 @@
         <v>-1.2566370614359172</v>
       </c>
       <c r="C7">
+        <f t="shared" si="2"/>
+        <v>-0.52320160413976113</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="1"/>
-        <v>-0.52320160413976113</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
         <v>-29.977243751682732</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-0.5</v>
       </c>
@@ -476,15 +1865,15 @@
         <v>-1.5707963267948966</v>
       </c>
       <c r="C8">
+        <f t="shared" si="2"/>
+        <v>-0.67458081347404164</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="1"/>
-        <v>-0.67458081347404164</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
         <v>-38.6506335525644</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-0.6</v>
       </c>
@@ -493,15 +1882,15 @@
         <v>-1.8849555921538759</v>
       </c>
       <c r="C9">
+        <f t="shared" si="2"/>
+        <v>-0.84728230496069168</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="1"/>
-        <v>-0.84728230496069168</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
         <v>-48.545700130363969</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-0.7</v>
       </c>
@@ -510,15 +1899,15 @@
         <v>-2.1991148575128552</v>
       </c>
       <c r="C10">
+        <f t="shared" si="2"/>
+        <v>-1.0641937245536794</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="1"/>
-        <v>-1.0641937245536794</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
         <v>-60.973809001233477</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-0.8</v>
       </c>
@@ -527,15 +1916,15 @@
         <v>-2.5132741228718345</v>
       </c>
       <c r="C11">
+        <f t="shared" si="2"/>
+        <v>-1.5336997257337772</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="1"/>
-        <v>-1.5336997257337772</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
         <v>-87.874521324917325</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-0.9</v>
       </c>
@@ -544,15 +1933,15 @@
         <v>-2.8274333882308138</v>
       </c>
       <c r="C12" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D12" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="D12" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1</v>
       </c>
@@ -561,15 +1950,15 @@
         <v>-3.1415926535897931</v>
       </c>
       <c r="C13" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D13" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="D13" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1.1000000000000001</v>
       </c>
@@ -578,15 +1967,15 @@
         <v>-3.4557519189487729</v>
       </c>
       <c r="C14" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D14" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="D14" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.2</v>
       </c>
@@ -595,15 +1984,15 @@
         <v>-3.7699111843077517</v>
       </c>
       <c r="C15" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D15" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="D15" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1.3</v>
       </c>
@@ -612,11 +2001,11 @@
         <v>-4.0840704496667311</v>
       </c>
       <c r="C16" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D16" t="e">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D16" t="e">
-        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -629,11 +2018,11 @@
         <v>-4.3982297150257104</v>
       </c>
       <c r="C17" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D17" t="e">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D17" t="e">
-        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -646,11 +2035,11 @@
         <v>-4.7123889803846897</v>
       </c>
       <c r="C18" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D18" t="e">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D18" t="e">
-        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -663,11 +2052,11 @@
         <v>-5.026548245743669</v>
       </c>
       <c r="C19" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D19" t="e">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D19" t="e">
-        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -680,11 +2069,11 @@
         <v>-5.3407075111026483</v>
       </c>
       <c r="C20" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D20" t="e">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D20" t="e">
-        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -697,11 +2086,11 @@
         <v>-5.6548667764616276</v>
       </c>
       <c r="C21" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D21" t="e">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D21" t="e">
-        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -714,11 +2103,11 @@
         <v>-5.9690260418206069</v>
       </c>
       <c r="C22" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D22" t="e">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D22" t="e">
-        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -731,15 +2120,16 @@
         <v>-6.2831853071795862</v>
       </c>
       <c r="C23" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D23" t="e">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D23" t="e">
-        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>